--- a/MSS/Pb_SOCI_results.xlsx
+++ b/MSS/Pb_SOCI_results.xlsx
@@ -1,53 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nistgov-my.sharepoint.com/personal/irikura_nist_gov/Documents/Karl/atomic_SOC/MSS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="203" documentId="11_F25DC773A252ABDACC1048BFA95E751A5BDE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4122F014-0915-447B-A918-304B6E21DEBA}"/>
+  <xr:revisionPtr revIDLastSave="224" documentId="11_F25DC773A252ABDACC1048BFA95E751A5BDE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FC78554-AA94-40FC-A114-B1D9731277D2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" tabRatio="953" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" tabRatio="953" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="letter codes" sheetId="1" r:id="rId1"/>
-    <sheet name="A" sheetId="2" r:id="rId2"/>
-    <sheet name="B" sheetId="3" r:id="rId3"/>
-    <sheet name="D" sheetId="4" r:id="rId4"/>
-    <sheet name="F" sheetId="5" r:id="rId5"/>
-    <sheet name="G" sheetId="6" r:id="rId6"/>
-    <sheet name="H" sheetId="7" r:id="rId7"/>
-    <sheet name="I" sheetId="8" r:id="rId8"/>
-    <sheet name="J" sheetId="9" r:id="rId9"/>
-    <sheet name="K" sheetId="10" r:id="rId10"/>
-    <sheet name="L" sheetId="11" r:id="rId11"/>
-    <sheet name="M" sheetId="12" r:id="rId12"/>
-    <sheet name="N" sheetId="13" r:id="rId13"/>
-    <sheet name="O" sheetId="14" r:id="rId14"/>
-    <sheet name="P" sheetId="15" r:id="rId15"/>
-    <sheet name="Q" sheetId="16" r:id="rId16"/>
-    <sheet name="R" sheetId="17" r:id="rId17"/>
-    <sheet name="S" sheetId="18" r:id="rId18"/>
-    <sheet name="T" sheetId="19" r:id="rId19"/>
-    <sheet name="U" sheetId="20" r:id="rId20"/>
-    <sheet name="V" sheetId="21" r:id="rId21"/>
-    <sheet name="W" sheetId="22" r:id="rId22"/>
-    <sheet name="X" sheetId="23" r:id="rId23"/>
-    <sheet name="Y" sheetId="24" r:id="rId24"/>
-    <sheet name="Z" sheetId="25" r:id="rId25"/>
-    <sheet name="AA" sheetId="26" r:id="rId26"/>
-    <sheet name="AB" sheetId="27" r:id="rId27"/>
-    <sheet name="AC" sheetId="28" r:id="rId28"/>
-    <sheet name="AD" sheetId="29" r:id="rId29"/>
-    <sheet name="AE" sheetId="30" r:id="rId30"/>
-    <sheet name="AF" sheetId="31" r:id="rId31"/>
-    <sheet name="AG" sheetId="32" r:id="rId32"/>
-    <sheet name="AH" sheetId="33" r:id="rId33"/>
-    <sheet name="AI" sheetId="34" r:id="rId34"/>
-    <sheet name="AJ" sheetId="35" r:id="rId35"/>
+    <sheet name="energies" sheetId="36" r:id="rId2"/>
+    <sheet name="A" sheetId="2" r:id="rId3"/>
+    <sheet name="B" sheetId="3" r:id="rId4"/>
+    <sheet name="D" sheetId="4" r:id="rId5"/>
+    <sheet name="F" sheetId="5" r:id="rId6"/>
+    <sheet name="G" sheetId="6" r:id="rId7"/>
+    <sheet name="H" sheetId="7" r:id="rId8"/>
+    <sheet name="I" sheetId="8" r:id="rId9"/>
+    <sheet name="J" sheetId="9" r:id="rId10"/>
+    <sheet name="K" sheetId="10" r:id="rId11"/>
+    <sheet name="L" sheetId="11" r:id="rId12"/>
+    <sheet name="M" sheetId="12" r:id="rId13"/>
+    <sheet name="N" sheetId="13" r:id="rId14"/>
+    <sheet name="O" sheetId="14" r:id="rId15"/>
+    <sheet name="P" sheetId="15" r:id="rId16"/>
+    <sheet name="Q" sheetId="16" r:id="rId17"/>
+    <sheet name="R" sheetId="17" r:id="rId18"/>
+    <sheet name="S" sheetId="18" r:id="rId19"/>
+    <sheet name="T" sheetId="19" r:id="rId20"/>
+    <sheet name="U" sheetId="20" r:id="rId21"/>
+    <sheet name="V" sheetId="21" r:id="rId22"/>
+    <sheet name="W" sheetId="22" r:id="rId23"/>
+    <sheet name="X" sheetId="23" r:id="rId24"/>
+    <sheet name="Y" sheetId="24" r:id="rId25"/>
+    <sheet name="Z" sheetId="25" r:id="rId26"/>
+    <sheet name="AA" sheetId="26" r:id="rId27"/>
+    <sheet name="AB" sheetId="27" r:id="rId28"/>
+    <sheet name="AC" sheetId="28" r:id="rId29"/>
+    <sheet name="AD" sheetId="29" r:id="rId30"/>
+    <sheet name="AE" sheetId="30" r:id="rId31"/>
+    <sheet name="AF" sheetId="31" r:id="rId32"/>
+    <sheet name="AG" sheetId="32" r:id="rId33"/>
+    <sheet name="AH" sheetId="33" r:id="rId34"/>
+    <sheet name="AI" sheetId="34" r:id="rId35"/>
+    <sheet name="AJ" sheetId="35" r:id="rId36"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="366">
   <si>
     <t>Calc</t>
   </si>
@@ -2350,12 +2351,27 @@
   </si>
   <si>
     <t>{'(2)1S': 79.2, '(2)3P': 20.3, '(1)3P': 0.3, '(1)1S': 0.2}</t>
+  </si>
+  <si>
+    <t>1D</t>
+  </si>
+  <si>
+    <t>1S</t>
+  </si>
+  <si>
+    <t>SO-CI</t>
+  </si>
+  <si>
+    <t>Energies of valence terms (MRCI+Q) and of SO-CI ground level (Hartree)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2459,7 +2475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2493,6 +2509,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2508,6 +2525,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3817,6 +3838,125 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C12437-A0D2-47B8-9B6C-72584E7EEFD2}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1.00000000283417</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2.99999999255285</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>7819.2626</v>
+      </c>
+      <c r="D3">
+        <v>3287.5</v>
+      </c>
+      <c r="E3">
+        <v>-4531.7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3.0575157225037302</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>10650.3271</v>
+      </c>
+      <c r="D4">
+        <v>6168.8</v>
+      </c>
+      <c r="E4">
+        <v>-4481.6000000000004</v>
+      </c>
+      <c r="F4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.9424842629769901</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>21457.798200000001</v>
+      </c>
+      <c r="D5">
+        <v>15676.9</v>
+      </c>
+      <c r="E5">
+        <v>-5780.9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2509CC8-14F5-4886-8079-F919BD1A4344}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -3954,7 +4094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5868148F-3338-4A14-A960-AC7C370F0376}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -4092,7 +4232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489CFE40-6D5F-4D7B-9696-C2AC4DBA9A06}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -4390,7 +4530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF20210-C0BA-4CB4-97AC-C5ADF6B59CA0}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -4688,7 +4828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1E8389-78AA-41AF-AC20-DAA227CED1A2}">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -5006,7 +5146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7106C731-4831-4B12-88EF-881057D56D2A}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -5304,7 +5444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DEB605F-5582-432A-9DAA-7F3DD95307B1}">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -5662,7 +5802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372DA2E1-3AF7-4A54-85EE-9405BA991545}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -5760,7 +5900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B85408-C851-47D8-A714-5B7422624754}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -5858,7 +5998,601 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F5C57E-CAF9-48CE-A83E-A359E18052A5}">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="13">
+        <v>-192.502341436666</v>
+      </c>
+      <c r="C3" s="13">
+        <v>-192.477228822</v>
+      </c>
+      <c r="D3" s="13">
+        <v>-192.43791304999999</v>
+      </c>
+      <c r="E3" s="13">
+        <v>-192.55193215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="13">
+        <v>-192.637210473333</v>
+      </c>
+      <c r="C4" s="13">
+        <v>-192.61223849800001</v>
+      </c>
+      <c r="D4" s="13">
+        <v>-192.57282696999999</v>
+      </c>
+      <c r="E4" s="13">
+        <v>-192.68779685999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="13">
+        <v>-192.696174613333</v>
+      </c>
+      <c r="C5" s="13">
+        <v>-192.67117966999999</v>
+      </c>
+      <c r="D5" s="13">
+        <v>-192.63187162</v>
+      </c>
+      <c r="E5" s="13">
+        <v>-192.74705247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="13">
+        <v>-20884.8329453966</v>
+      </c>
+      <c r="C6" s="13">
+        <v>-20884.807506917899</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13">
+        <v>-20884.885073640002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="13">
+        <v>-20885.450142163299</v>
+      </c>
+      <c r="C7" s="13">
+        <v>-20885.424500027999</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13">
+        <v>-20885.503569730001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="13">
+        <v>-192.50157746666599</v>
+      </c>
+      <c r="C8" s="13">
+        <v>-192.476500332</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13">
+        <v>-192.53130766999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="13">
+        <v>-192.50340708666599</v>
+      </c>
+      <c r="C9" s="13">
+        <v>-192.47863689600001</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13">
+        <v>-192.53261409000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="13">
+        <v>-192.69560619333299</v>
+      </c>
+      <c r="C10" s="13">
+        <v>-192.67096588800001</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13">
+        <v>-192.72556453000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="13">
+        <v>-192.501530733333</v>
+      </c>
+      <c r="C11" s="13">
+        <v>-192.47676561599999</v>
+      </c>
+      <c r="D11" s="13">
+        <v>-192.43722016999999</v>
+      </c>
+      <c r="E11" s="13">
+        <v>-192.54731672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="13">
+        <v>-192.69553533666601</v>
+      </c>
+      <c r="C12" s="13">
+        <v>-192.67122035999901</v>
+      </c>
+      <c r="D12" s="13">
+        <v>-192.63234464000001</v>
+      </c>
+      <c r="E12" s="13">
+        <v>-192.74198489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="13">
+        <v>-192.69612982999999</v>
+      </c>
+      <c r="C13" s="13">
+        <v>-192.67110038600001</v>
+      </c>
+      <c r="D13" s="13">
+        <v>-192.63169092999999</v>
+      </c>
+      <c r="E13" s="13">
+        <v>-192.74705531000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="13">
+        <v>-192.63716040333301</v>
+      </c>
+      <c r="C14" s="13">
+        <v>-192.61214356199901</v>
+      </c>
+      <c r="D14" s="13">
+        <v>-192.57259864</v>
+      </c>
+      <c r="E14" s="13">
+        <v>-192.68780910999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="13">
+        <v>-192.63757590333299</v>
+      </c>
+      <c r="C15" s="13">
+        <v>-192.61289539199899</v>
+      </c>
+      <c r="D15" s="13">
+        <v>-192.57400824999999</v>
+      </c>
+      <c r="E15" s="13">
+        <v>-192.68604826999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="13">
+        <v>-192.63716178999999</v>
+      </c>
+      <c r="C16" s="13">
+        <v>-192.61214333599901</v>
+      </c>
+      <c r="D16" s="13">
+        <v>-192.57259310000001</v>
+      </c>
+      <c r="E16" s="13">
+        <v>-192.68781174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="13">
+        <v>-192.63725299666601</v>
+      </c>
+      <c r="C17" s="13">
+        <v>-192.61232544599901</v>
+      </c>
+      <c r="D17" s="13">
+        <v>-192.57305445</v>
+      </c>
+      <c r="E17" s="13">
+        <v>-192.68775120999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="13">
+        <v>-192.695858723333</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13">
+        <v>-192.72632775</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="13">
+        <v>-192.69779098666601</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13">
+        <v>-192.72725274999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="13">
+        <v>-192.69747457999901</v>
+      </c>
+      <c r="C20" s="13">
+        <v>-192.673143178</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13">
+        <v>-192.72682541</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="13">
+        <v>-192.69736580999901</v>
+      </c>
+      <c r="C21" s="13">
+        <v>-192.67327058000001</v>
+      </c>
+      <c r="D21" s="13">
+        <v>-192.63534881999999</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-192.74251494000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="13">
+        <v>-192.69657899000001</v>
+      </c>
+      <c r="C22" s="13">
+        <v>-192.67103556199999</v>
+      </c>
+      <c r="D22" s="13">
+        <v>-192.63212396</v>
+      </c>
+      <c r="E22" s="13">
+        <v>-192.74470994999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="13">
+        <v>-192.69643512666599</v>
+      </c>
+      <c r="C23" s="13">
+        <v>-192.67074257600001</v>
+      </c>
+      <c r="D23" s="13">
+        <v>-192.63166519000001</v>
+      </c>
+      <c r="E23" s="13">
+        <v>-192.74508057</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="13">
+        <v>-192.69612910999999</v>
+      </c>
+      <c r="C24" s="13">
+        <v>-192.67109882400001</v>
+      </c>
+      <c r="D24" s="13">
+        <v>-192.63168687999999</v>
+      </c>
+      <c r="E24" s="13">
+        <v>-192.74705584</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="13">
+        <v>-192.63572746333301</v>
+      </c>
+      <c r="C25" s="13">
+        <v>-192.61069599999999</v>
+      </c>
+      <c r="D25" s="13">
+        <v>-192.56964339999999</v>
+      </c>
+      <c r="E25" s="13">
+        <v>-192.68524084000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="13">
+        <v>-192.63673324000001</v>
+      </c>
+      <c r="C26" s="13">
+        <v>-192.61170471</v>
+      </c>
+      <c r="D26" s="13">
+        <v>-192.57066114</v>
+      </c>
+      <c r="E26" s="13">
+        <v>-192.68630653</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="13">
+        <v>-20885.4484608766</v>
+      </c>
+      <c r="C27" s="13">
+        <v>-20885.422903306</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13">
+        <v>-20885.501943499999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="13">
+        <v>-20885.448269156601</v>
+      </c>
+      <c r="C28" s="13">
+        <v>-20885.4229480539</v>
+      </c>
+      <c r="D28" s="13">
+        <v>-20885.381807590002</v>
+      </c>
+      <c r="E28" s="13">
+        <v>-20885.537429740001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="13">
+        <v>-20885.4491374766</v>
+      </c>
+      <c r="C29" s="13">
+        <v>-20885.423504541999</v>
+      </c>
+      <c r="D29" s="13">
+        <v>-20885.38307937</v>
+      </c>
+      <c r="E29" s="13">
+        <v>-20885.538450880002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="13">
+        <v>-20885.449483709901</v>
+      </c>
+      <c r="C30" s="13">
+        <v>-20885.423051811998</v>
+      </c>
+      <c r="D30" s="13">
+        <v>-20885.380802700001</v>
+      </c>
+      <c r="E30" s="13">
+        <v>-20885.541711829999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="13">
+        <v>-20885.4493083466</v>
+      </c>
+      <c r="C31" s="13">
+        <v>-20885.423534774</v>
+      </c>
+      <c r="D31" s="13">
+        <v>-20885.38199768</v>
+      </c>
+      <c r="E31" s="13">
+        <v>-20885.543173319998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="13">
+        <v>-20885.814897476601</v>
+      </c>
+      <c r="C32" s="13">
+        <v>-20885.789054863999</v>
+      </c>
+      <c r="D32" s="13">
+        <v>-20885.747330080001</v>
+      </c>
+      <c r="E32" s="13">
+        <v>-20885.90905319</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="13">
+        <v>-20885.8148521066</v>
+      </c>
+      <c r="C33" s="13">
+        <v>-20885.788710715999</v>
+      </c>
+      <c r="D33" s="13">
+        <v>-20885.746718660001</v>
+      </c>
+      <c r="E33" s="13">
+        <v>-20885.913054320001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="13">
+        <v>-192.694671133333</v>
+      </c>
+      <c r="C34" s="13">
+        <v>-192.669641216</v>
+      </c>
+      <c r="D34" s="13">
+        <v>-192.62852581000001</v>
+      </c>
+      <c r="E34" s="13">
+        <v>-192.74439989000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="13">
+        <v>-192.69700759333301</v>
+      </c>
+      <c r="C35" s="13">
+        <v>-192.671838216</v>
+      </c>
+      <c r="D35" s="13">
+        <v>-192.63266203000001</v>
+      </c>
+      <c r="E35" s="13">
+        <v>-192.74779964000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="13">
+        <v>-192.69713944</v>
+      </c>
+      <c r="C36" s="13">
+        <v>-192.672648624</v>
+      </c>
+      <c r="D36" s="13">
+        <v>-192.63435903999999</v>
+      </c>
+      <c r="E36" s="13">
+        <v>-192.74697476</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5958F4-325F-4C8D-AFC8-80B4065ED72D}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -5976,7 +6710,1929 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65C5DC1-FB22-4D05-A914-0CAFB034979F}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.87144976678040997</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3.00000000472944</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>7819.2626</v>
+      </c>
+      <c r="D3">
+        <v>6689.3</v>
+      </c>
+      <c r="E3">
+        <v>-1129.9000000000001</v>
+      </c>
+      <c r="F3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3.0622921857867</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>10650.3271</v>
+      </c>
+      <c r="D4">
+        <v>9564.7000000000007</v>
+      </c>
+      <c r="E4">
+        <v>-1085.5999999999999</v>
+      </c>
+      <c r="F4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.93770779997759</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>21457.798200000001</v>
+      </c>
+      <c r="D5">
+        <v>18761.5</v>
+      </c>
+      <c r="E5">
+        <v>-2696.3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.12855023733898099</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>29466.830300000001</v>
+      </c>
+      <c r="D6">
+        <v>26989.8</v>
+      </c>
+      <c r="E6">
+        <v>-2477</v>
+      </c>
+      <c r="F6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13688DD7-E202-43BF-B01D-4FE5EED8F0E0}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="39.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.87139062036211701</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2.9962424984323199</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>7819.2626</v>
+      </c>
+      <c r="D3">
+        <v>7055.5</v>
+      </c>
+      <c r="E3">
+        <v>-763.8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2.99836055612968</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>10650.3271</v>
+      </c>
+      <c r="D4">
+        <v>9997.7999999999993</v>
+      </c>
+      <c r="E4">
+        <v>-652.5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.9911833568841399</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>21457.798200000001</v>
+      </c>
+      <c r="D5">
+        <v>19899.900000000001</v>
+      </c>
+      <c r="E5">
+        <v>-1557.9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.12781521682532801</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>29466.830300000001</v>
+      </c>
+      <c r="D6">
+        <v>28259.8</v>
+      </c>
+      <c r="E6">
+        <v>-1207</v>
+      </c>
+      <c r="F6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.4462474355122E-3</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>42918.643400000001</v>
+      </c>
+      <c r="D7">
+        <v>43888.800000000003</v>
+      </c>
+      <c r="E7">
+        <v>970.2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7.9415153752819903E-4</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>44400.889799999997</v>
+      </c>
+      <c r="D8">
+        <v>47377.1</v>
+      </c>
+      <c r="E8">
+        <v>2976.2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.0224366066928999E-2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>44809.363599999997</v>
+      </c>
+      <c r="D9">
+        <v>47739.7</v>
+      </c>
+      <c r="E9">
+        <v>2930.4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2.3112641762965901E-3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>44674.9859</v>
+      </c>
+      <c r="D10">
+        <v>50376.3</v>
+      </c>
+      <c r="E10">
+        <v>5701.3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2.3171104737640001E-4</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>51944.105900000002</v>
+      </c>
+      <c r="D11">
+        <v>55352.4</v>
+      </c>
+      <c r="E11">
+        <v>3408.3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E8ABC0-C026-40C8-84E0-CEB91393F9BF}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="49.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.87130887635568999</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2.9871374271794999</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>7819.2626</v>
+      </c>
+      <c r="D3">
+        <v>6988</v>
+      </c>
+      <c r="E3">
+        <v>-831.2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2.98927207530053</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>10650.3271</v>
+      </c>
+      <c r="D4">
+        <v>10093.5</v>
+      </c>
+      <c r="E4">
+        <v>-556.9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2.00001732053282</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>21457.798200000001</v>
+      </c>
+      <c r="D5">
+        <v>20093.5</v>
+      </c>
+      <c r="E5">
+        <v>-1364.3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.12784713741256501</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>29466.830300000001</v>
+      </c>
+      <c r="D6">
+        <v>28475.599999999999</v>
+      </c>
+      <c r="E6">
+        <v>-991.3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4.1510271851990001E-3</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>44674.9859</v>
+      </c>
+      <c r="D7">
+        <v>44277</v>
+      </c>
+      <c r="E7">
+        <v>-398</v>
+      </c>
+      <c r="F7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8.4398431933720001E-4</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>44400.889799999997</v>
+      </c>
+      <c r="D8">
+        <v>47327.199999999997</v>
+      </c>
+      <c r="E8">
+        <v>2926.3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.04677412653799E-2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>44809.363599999997</v>
+      </c>
+      <c r="D9">
+        <v>47690.6</v>
+      </c>
+      <c r="E9">
+        <v>2881.3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5.8550283251701E-3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>51320.598100000003</v>
+      </c>
+      <c r="D10">
+        <v>54339.5</v>
+      </c>
+      <c r="E10">
+        <v>3018.9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2.4286953886640001E-4</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>51944.105900000002</v>
+      </c>
+      <c r="D11">
+        <v>55404.800000000003</v>
+      </c>
+      <c r="E11">
+        <v>3460.7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2.8557551219723998E-3</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>51916.940799999997</v>
+      </c>
+      <c r="D12">
+        <v>55720.3</v>
+      </c>
+      <c r="E12">
+        <v>3803.3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B002B2-BC28-46AC-A831-0C6D0EC1B68E}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="52.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.86286700193076304</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2.9915518499995901</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>7819.2626</v>
+      </c>
+      <c r="D3">
+        <v>7510</v>
+      </c>
+      <c r="E3">
+        <v>-309.3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2.9579108970948398</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>10650.3271</v>
+      </c>
+      <c r="D4">
+        <v>10496.4</v>
+      </c>
+      <c r="E4">
+        <v>-153.9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2.03300648216833</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>21457.798200000001</v>
+      </c>
+      <c r="D5">
+        <v>20684.5</v>
+      </c>
+      <c r="E5">
+        <v>-773.3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.13223294588508899</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>29466.830300000001</v>
+      </c>
+      <c r="D6">
+        <v>29143.1</v>
+      </c>
+      <c r="E6">
+        <v>-323.7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3.3618359020857998E-3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>44400.889799999997</v>
+      </c>
+      <c r="D7">
+        <v>44172</v>
+      </c>
+      <c r="E7">
+        <v>-228.9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2.73748077355759E-3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>44674.9859</v>
+      </c>
+      <c r="D8">
+        <v>44355.1</v>
+      </c>
+      <c r="E8">
+        <v>-319.8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.1695104125300001E-3</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>44809.363599999997</v>
+      </c>
+      <c r="D9">
+        <v>44530.2</v>
+      </c>
+      <c r="E9">
+        <v>-279.2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3.5206687475580999E-3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>51320.598100000003</v>
+      </c>
+      <c r="D10">
+        <v>54916.3</v>
+      </c>
+      <c r="E10">
+        <v>3595.7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.4034132253253899E-3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>51944.105900000002</v>
+      </c>
+      <c r="D11">
+        <v>55327.199999999997</v>
+      </c>
+      <c r="E11">
+        <v>3383.1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2.1891833043363898E-3</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>51916.940799999997</v>
+      </c>
+      <c r="D12">
+        <v>56027</v>
+      </c>
+      <c r="E12">
+        <v>4110.1000000000004</v>
+      </c>
+      <c r="F12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6.5097064819132902E-3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>52849.799099999997</v>
+      </c>
+      <c r="D13">
+        <v>56710.6</v>
+      </c>
+      <c r="E13">
+        <v>3860.8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.5382073755968899E-3</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>51786.061399999999</v>
+      </c>
+      <c r="D14">
+        <v>58472</v>
+      </c>
+      <c r="E14">
+        <v>6685.9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F92417-2338-4FBD-A822-0FA116E4891E}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="49.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.869848013441752</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2.99246717897188</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>7819.2626</v>
+      </c>
+      <c r="D3">
+        <v>7254.1</v>
+      </c>
+      <c r="E3">
+        <v>-565.1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2.97537666360811</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>10650.3271</v>
+      </c>
+      <c r="D4">
+        <v>10229.200000000001</v>
+      </c>
+      <c r="E4">
+        <v>-421.2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2.0165376669215802</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>21457.798200000001</v>
+      </c>
+      <c r="D5">
+        <v>20312.5</v>
+      </c>
+      <c r="E5">
+        <v>-1145.3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.12547225952396099</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>29466.830300000001</v>
+      </c>
+      <c r="D6">
+        <v>28992.400000000001</v>
+      </c>
+      <c r="E6">
+        <v>-474.4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3.2406336133638E-3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>44400.889799999997</v>
+      </c>
+      <c r="D7">
+        <v>44254.5</v>
+      </c>
+      <c r="E7">
+        <v>-146.4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2.4219929550532999E-3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>44674.9859</v>
+      </c>
+      <c r="D8">
+        <v>44386.1</v>
+      </c>
+      <c r="E8">
+        <v>-288.89999999999998</v>
+      </c>
+      <c r="F8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.0607008541282999E-3</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>44809.363599999997</v>
+      </c>
+      <c r="D9">
+        <v>44547.5</v>
+      </c>
+      <c r="E9">
+        <v>-261.8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3.1080045465788002E-3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>51320.598100000003</v>
+      </c>
+      <c r="D10">
+        <v>54869.8</v>
+      </c>
+      <c r="E10">
+        <v>3549.2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.1710750213235999E-3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>51944.105900000002</v>
+      </c>
+      <c r="D11">
+        <v>55275.7</v>
+      </c>
+      <c r="E11">
+        <v>3331.6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2.0019557928468001E-3</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>51916.940799999997</v>
+      </c>
+      <c r="D12">
+        <v>55957.3</v>
+      </c>
+      <c r="E12">
+        <v>4040.3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5.8539181436426E-3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>52849.799099999997</v>
+      </c>
+      <c r="D13">
+        <v>56545.2</v>
+      </c>
+      <c r="E13">
+        <v>3695.4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.4390954402414E-3</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>51786.061399999999</v>
+      </c>
+      <c r="D14">
+        <v>58246.3</v>
+      </c>
+      <c r="E14">
+        <v>6460.2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6F5180-68F9-4924-8045-44029F66A1B7}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="49.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.86970789856701802</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2.9924556531956101</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>7819.2626</v>
+      </c>
+      <c r="D3">
+        <v>7263.7</v>
+      </c>
+      <c r="E3">
+        <v>-555.6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2.9739211609987701</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>10650.3271</v>
+      </c>
+      <c r="D4">
+        <v>10239.1</v>
+      </c>
+      <c r="E4">
+        <v>-411.2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2.0179792150105098</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>21457.798200000001</v>
+      </c>
+      <c r="D5">
+        <v>20331.3</v>
+      </c>
+      <c r="E5">
+        <v>-1126.5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.125605352692333</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>29466.830300000001</v>
+      </c>
+      <c r="D6">
+        <v>29008.799999999999</v>
+      </c>
+      <c r="E6">
+        <v>-458.1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3.2458970288273999E-3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>44400.889799999997</v>
+      </c>
+      <c r="D7">
+        <v>44261.8</v>
+      </c>
+      <c r="E7">
+        <v>-139.1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2.4260469267455001E-3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>44674.9859</v>
+      </c>
+      <c r="D8">
+        <v>44394.3</v>
+      </c>
+      <c r="E8">
+        <v>-280.60000000000002</v>
+      </c>
+      <c r="F8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.0618896877707001E-3</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>44809.363599999997</v>
+      </c>
+      <c r="D9">
+        <v>44555.8</v>
+      </c>
+      <c r="E9">
+        <v>-253.5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3.1139687265345E-3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>51320.598100000003</v>
+      </c>
+      <c r="D10">
+        <v>54888.4</v>
+      </c>
+      <c r="E10">
+        <v>3567.8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.1733686818100001E-3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>51944.105900000002</v>
+      </c>
+      <c r="D11">
+        <v>55294.1</v>
+      </c>
+      <c r="E11">
+        <v>3350</v>
+      </c>
+      <c r="F11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2.0034675432485998E-3</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>51916.940799999997</v>
+      </c>
+      <c r="D12">
+        <v>55976</v>
+      </c>
+      <c r="E12">
+        <v>4059</v>
+      </c>
+      <c r="F12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5.86436827032289E-3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>52849.799099999997</v>
+      </c>
+      <c r="D13">
+        <v>56564.1</v>
+      </c>
+      <c r="E13">
+        <v>3714.3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.4408533948641999E-3</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>51786.061399999999</v>
+      </c>
+      <c r="D14">
+        <v>58265</v>
+      </c>
+      <c r="E14">
+        <v>6479</v>
+      </c>
+      <c r="F14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0228258D-BC45-4915-920F-9DD694A78485}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1.00000000280729</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3.0000000160767701</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>7819.2626</v>
+      </c>
+      <c r="D3">
+        <v>5869</v>
+      </c>
+      <c r="E3">
+        <v>-1950.2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2.4607942355721701</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>10650.3271</v>
+      </c>
+      <c r="D4">
+        <v>9194</v>
+      </c>
+      <c r="E4">
+        <v>-1456.4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2.5392057551831799</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>21457.798200000001</v>
+      </c>
+      <c r="D5">
+        <v>25760.5</v>
+      </c>
+      <c r="E5">
+        <v>4302.7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3A5B88-9DAE-47AA-A333-17A7EA273257}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.81209964129308498</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2.9999999956719101</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>7819.2626</v>
+      </c>
+      <c r="D3">
+        <v>13735.6</v>
+      </c>
+      <c r="E3">
+        <v>5916.3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2.4581639282456602</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>10650.3271</v>
+      </c>
+      <c r="D4">
+        <v>17030.099999999999</v>
+      </c>
+      <c r="E4">
+        <v>6379.8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2.5418360539996798</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>21457.798200000001</v>
+      </c>
+      <c r="D5">
+        <v>33497.1</v>
+      </c>
+      <c r="E5">
+        <v>12039.3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.18790034847852999</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>29466.830300000001</v>
+      </c>
+      <c r="D6">
+        <v>42057.8</v>
+      </c>
+      <c r="E6">
+        <v>12591</v>
+      </c>
+      <c r="F6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9B3170-25D3-4855-B7F8-757AAD5B45BD}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.81768381575253402</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3.0000000092943599</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>7819.2626</v>
+      </c>
+      <c r="D3">
+        <v>13602.6</v>
+      </c>
+      <c r="E3">
+        <v>5783.3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2.4438075863495201</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>10650.3271</v>
+      </c>
+      <c r="D4">
+        <v>17102.900000000001</v>
+      </c>
+      <c r="E4">
+        <v>6452.6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2.5561924285665198</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>21457.798200000001</v>
+      </c>
+      <c r="D5">
+        <v>33726.300000000003</v>
+      </c>
+      <c r="E5">
+        <v>12268.5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.18231617835796299</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>29466.830300000001</v>
+      </c>
+      <c r="D6">
+        <v>41703.300000000003</v>
+      </c>
+      <c r="E6">
+        <v>12236.5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1B4922-EFE1-4004-8F29-E2D0F859915D}">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -6296,1929 +8952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65C5DC1-FB22-4D05-A914-0CAFB034979F}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.87144976678040997</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3.00000000472944</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>7819.2626</v>
-      </c>
-      <c r="D3">
-        <v>6689.3</v>
-      </c>
-      <c r="E3">
-        <v>-1129.9000000000001</v>
-      </c>
-      <c r="F3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3.0622921857867</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>10650.3271</v>
-      </c>
-      <c r="D4">
-        <v>9564.7000000000007</v>
-      </c>
-      <c r="E4">
-        <v>-1085.5999999999999</v>
-      </c>
-      <c r="F4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1.93770779997759</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>21457.798200000001</v>
-      </c>
-      <c r="D5">
-        <v>18761.5</v>
-      </c>
-      <c r="E5">
-        <v>-2696.3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.12855023733898099</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>29466.830300000001</v>
-      </c>
-      <c r="D6">
-        <v>26989.8</v>
-      </c>
-      <c r="E6">
-        <v>-2477</v>
-      </c>
-      <c r="F6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13688DD7-E202-43BF-B01D-4FE5EED8F0E0}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="39.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.87139062036211701</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2.9962424984323199</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>7819.2626</v>
-      </c>
-      <c r="D3">
-        <v>7055.5</v>
-      </c>
-      <c r="E3">
-        <v>-763.8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2.99836055612968</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>10650.3271</v>
-      </c>
-      <c r="D4">
-        <v>9997.7999999999993</v>
-      </c>
-      <c r="E4">
-        <v>-652.5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1.9911833568841399</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>21457.798200000001</v>
-      </c>
-      <c r="D5">
-        <v>19899.900000000001</v>
-      </c>
-      <c r="E5">
-        <v>-1557.9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.12781521682532801</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>29466.830300000001</v>
-      </c>
-      <c r="D6">
-        <v>28259.8</v>
-      </c>
-      <c r="E6">
-        <v>-1207</v>
-      </c>
-      <c r="F6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1.4462474355122E-3</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>42918.643400000001</v>
-      </c>
-      <c r="D7">
-        <v>43888.800000000003</v>
-      </c>
-      <c r="E7">
-        <v>970.2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7.9415153752819903E-4</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>44400.889799999997</v>
-      </c>
-      <c r="D8">
-        <v>47377.1</v>
-      </c>
-      <c r="E8">
-        <v>2976.2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1.0224366066928999E-2</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>44809.363599999997</v>
-      </c>
-      <c r="D9">
-        <v>47739.7</v>
-      </c>
-      <c r="E9">
-        <v>2930.4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2.3112641762965901E-3</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>44674.9859</v>
-      </c>
-      <c r="D10">
-        <v>50376.3</v>
-      </c>
-      <c r="E10">
-        <v>5701.3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2.3171104737640001E-4</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>51944.105900000002</v>
-      </c>
-      <c r="D11">
-        <v>55352.4</v>
-      </c>
-      <c r="E11">
-        <v>3408.3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E8ABC0-C026-40C8-84E0-CEB91393F9BF}">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="49.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.87130887635568999</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2.9871374271794999</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>7819.2626</v>
-      </c>
-      <c r="D3">
-        <v>6988</v>
-      </c>
-      <c r="E3">
-        <v>-831.2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2.98927207530053</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>10650.3271</v>
-      </c>
-      <c r="D4">
-        <v>10093.5</v>
-      </c>
-      <c r="E4">
-        <v>-556.9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2.00001732053282</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>21457.798200000001</v>
-      </c>
-      <c r="D5">
-        <v>20093.5</v>
-      </c>
-      <c r="E5">
-        <v>-1364.3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.12784713741256501</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>29466.830300000001</v>
-      </c>
-      <c r="D6">
-        <v>28475.599999999999</v>
-      </c>
-      <c r="E6">
-        <v>-991.3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4.1510271851990001E-3</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>44674.9859</v>
-      </c>
-      <c r="D7">
-        <v>44277</v>
-      </c>
-      <c r="E7">
-        <v>-398</v>
-      </c>
-      <c r="F7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8.4398431933720001E-4</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>44400.889799999997</v>
-      </c>
-      <c r="D8">
-        <v>47327.199999999997</v>
-      </c>
-      <c r="E8">
-        <v>2926.3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1.04677412653799E-2</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>44809.363599999997</v>
-      </c>
-      <c r="D9">
-        <v>47690.6</v>
-      </c>
-      <c r="E9">
-        <v>2881.3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5.8550283251701E-3</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>51320.598100000003</v>
-      </c>
-      <c r="D10">
-        <v>54339.5</v>
-      </c>
-      <c r="E10">
-        <v>3018.9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2.4286953886640001E-4</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>51944.105900000002</v>
-      </c>
-      <c r="D11">
-        <v>55404.800000000003</v>
-      </c>
-      <c r="E11">
-        <v>3460.7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2.8557551219723998E-3</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>51916.940799999997</v>
-      </c>
-      <c r="D12">
-        <v>55720.3</v>
-      </c>
-      <c r="E12">
-        <v>3803.3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>265</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B002B2-BC28-46AC-A831-0C6D0EC1B68E}">
-  <dimension ref="A1:F14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="52.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.86286700193076304</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2.9915518499995901</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>7819.2626</v>
-      </c>
-      <c r="D3">
-        <v>7510</v>
-      </c>
-      <c r="E3">
-        <v>-309.3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2.9579108970948398</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>10650.3271</v>
-      </c>
-      <c r="D4">
-        <v>10496.4</v>
-      </c>
-      <c r="E4">
-        <v>-153.9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2.03300648216833</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>21457.798200000001</v>
-      </c>
-      <c r="D5">
-        <v>20684.5</v>
-      </c>
-      <c r="E5">
-        <v>-773.3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.13223294588508899</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>29466.830300000001</v>
-      </c>
-      <c r="D6">
-        <v>29143.1</v>
-      </c>
-      <c r="E6">
-        <v>-323.7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3.3618359020857998E-3</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>44400.889799999997</v>
-      </c>
-      <c r="D7">
-        <v>44172</v>
-      </c>
-      <c r="E7">
-        <v>-228.9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2.73748077355759E-3</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>44674.9859</v>
-      </c>
-      <c r="D8">
-        <v>44355.1</v>
-      </c>
-      <c r="E8">
-        <v>-319.8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1.1695104125300001E-3</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>44809.363599999997</v>
-      </c>
-      <c r="D9">
-        <v>44530.2</v>
-      </c>
-      <c r="E9">
-        <v>-279.2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3.5206687475580999E-3</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>51320.598100000003</v>
-      </c>
-      <c r="D10">
-        <v>54916.3</v>
-      </c>
-      <c r="E10">
-        <v>3595.7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1.4034132253253899E-3</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>51944.105900000002</v>
-      </c>
-      <c r="D11">
-        <v>55327.199999999997</v>
-      </c>
-      <c r="E11">
-        <v>3383.1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2.1891833043363898E-3</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>51916.940799999997</v>
-      </c>
-      <c r="D12">
-        <v>56027</v>
-      </c>
-      <c r="E12">
-        <v>4110.1000000000004</v>
-      </c>
-      <c r="F12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>6.5097064819132902E-3</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>52849.799099999997</v>
-      </c>
-      <c r="D13">
-        <v>56710.6</v>
-      </c>
-      <c r="E13">
-        <v>3860.8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1.5382073755968899E-3</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>51786.061399999999</v>
-      </c>
-      <c r="D14">
-        <v>58472</v>
-      </c>
-      <c r="E14">
-        <v>6685.9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>210</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F92417-2338-4FBD-A822-0FA116E4891E}">
-  <dimension ref="A1:F14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="49.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.869848013441752</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2.99246717897188</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>7819.2626</v>
-      </c>
-      <c r="D3">
-        <v>7254.1</v>
-      </c>
-      <c r="E3">
-        <v>-565.1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2.97537666360811</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>10650.3271</v>
-      </c>
-      <c r="D4">
-        <v>10229.200000000001</v>
-      </c>
-      <c r="E4">
-        <v>-421.2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2.0165376669215802</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>21457.798200000001</v>
-      </c>
-      <c r="D5">
-        <v>20312.5</v>
-      </c>
-      <c r="E5">
-        <v>-1145.3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.12547225952396099</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>29466.830300000001</v>
-      </c>
-      <c r="D6">
-        <v>28992.400000000001</v>
-      </c>
-      <c r="E6">
-        <v>-474.4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3.2406336133638E-3</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>44400.889799999997</v>
-      </c>
-      <c r="D7">
-        <v>44254.5</v>
-      </c>
-      <c r="E7">
-        <v>-146.4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2.4219929550532999E-3</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>44674.9859</v>
-      </c>
-      <c r="D8">
-        <v>44386.1</v>
-      </c>
-      <c r="E8">
-        <v>-288.89999999999998</v>
-      </c>
-      <c r="F8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1.0607008541282999E-3</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>44809.363599999997</v>
-      </c>
-      <c r="D9">
-        <v>44547.5</v>
-      </c>
-      <c r="E9">
-        <v>-261.8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3.1080045465788002E-3</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>51320.598100000003</v>
-      </c>
-      <c r="D10">
-        <v>54869.8</v>
-      </c>
-      <c r="E10">
-        <v>3549.2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1.1710750213235999E-3</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>51944.105900000002</v>
-      </c>
-      <c r="D11">
-        <v>55275.7</v>
-      </c>
-      <c r="E11">
-        <v>3331.6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2.0019557928468001E-3</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>51916.940799999997</v>
-      </c>
-      <c r="D12">
-        <v>55957.3</v>
-      </c>
-      <c r="E12">
-        <v>4040.3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5.8539181436426E-3</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>52849.799099999997</v>
-      </c>
-      <c r="D13">
-        <v>56545.2</v>
-      </c>
-      <c r="E13">
-        <v>3695.4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1.4390954402414E-3</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>51786.061399999999</v>
-      </c>
-      <c r="D14">
-        <v>58246.3</v>
-      </c>
-      <c r="E14">
-        <v>6460.2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>278</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6F5180-68F9-4924-8045-44029F66A1B7}">
-  <dimension ref="A1:F14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="49.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.86970789856701802</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2.9924556531956101</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>7819.2626</v>
-      </c>
-      <c r="D3">
-        <v>7263.7</v>
-      </c>
-      <c r="E3">
-        <v>-555.6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2.9739211609987701</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>10650.3271</v>
-      </c>
-      <c r="D4">
-        <v>10239.1</v>
-      </c>
-      <c r="E4">
-        <v>-411.2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2.0179792150105098</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>21457.798200000001</v>
-      </c>
-      <c r="D5">
-        <v>20331.3</v>
-      </c>
-      <c r="E5">
-        <v>-1126.5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.125605352692333</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>29466.830300000001</v>
-      </c>
-      <c r="D6">
-        <v>29008.799999999999</v>
-      </c>
-      <c r="E6">
-        <v>-458.1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3.2458970288273999E-3</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>44400.889799999997</v>
-      </c>
-      <c r="D7">
-        <v>44261.8</v>
-      </c>
-      <c r="E7">
-        <v>-139.1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2.4260469267455001E-3</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>44674.9859</v>
-      </c>
-      <c r="D8">
-        <v>44394.3</v>
-      </c>
-      <c r="E8">
-        <v>-280.60000000000002</v>
-      </c>
-      <c r="F8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1.0618896877707001E-3</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>44809.363599999997</v>
-      </c>
-      <c r="D9">
-        <v>44555.8</v>
-      </c>
-      <c r="E9">
-        <v>-253.5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3.1139687265345E-3</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>51320.598100000003</v>
-      </c>
-      <c r="D10">
-        <v>54888.4</v>
-      </c>
-      <c r="E10">
-        <v>3567.8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1.1733686818100001E-3</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>51944.105900000002</v>
-      </c>
-      <c r="D11">
-        <v>55294.1</v>
-      </c>
-      <c r="E11">
-        <v>3350</v>
-      </c>
-      <c r="F11" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2.0034675432485998E-3</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>51916.940799999997</v>
-      </c>
-      <c r="D12">
-        <v>55976</v>
-      </c>
-      <c r="E12">
-        <v>4059</v>
-      </c>
-      <c r="F12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5.86436827032289E-3</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>52849.799099999997</v>
-      </c>
-      <c r="D13">
-        <v>56564.1</v>
-      </c>
-      <c r="E13">
-        <v>3714.3</v>
-      </c>
-      <c r="F13" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1.4408533948641999E-3</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>51786.061399999999</v>
-      </c>
-      <c r="D14">
-        <v>58265</v>
-      </c>
-      <c r="E14">
-        <v>6479</v>
-      </c>
-      <c r="F14" t="s">
-        <v>278</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0228258D-BC45-4915-920F-9DD694A78485}">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1.00000000280729</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3.0000000160767701</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>7819.2626</v>
-      </c>
-      <c r="D3">
-        <v>5869</v>
-      </c>
-      <c r="E3">
-        <v>-1950.2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2.4607942355721701</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>10650.3271</v>
-      </c>
-      <c r="D4">
-        <v>9194</v>
-      </c>
-      <c r="E4">
-        <v>-1456.4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2.5392057551831799</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>21457.798200000001</v>
-      </c>
-      <c r="D5">
-        <v>25760.5</v>
-      </c>
-      <c r="E5">
-        <v>4302.7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3A5B88-9DAE-47AA-A333-17A7EA273257}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.81209964129308498</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2.9999999956719101</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>7819.2626</v>
-      </c>
-      <c r="D3">
-        <v>13735.6</v>
-      </c>
-      <c r="E3">
-        <v>5916.3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2.4581639282456602</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>10650.3271</v>
-      </c>
-      <c r="D4">
-        <v>17030.099999999999</v>
-      </c>
-      <c r="E4">
-        <v>6379.8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2.5418360539996798</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>21457.798200000001</v>
-      </c>
-      <c r="D5">
-        <v>33497.1</v>
-      </c>
-      <c r="E5">
-        <v>12039.3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.18790034847852999</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>29466.830300000001</v>
-      </c>
-      <c r="D6">
-        <v>42057.8</v>
-      </c>
-      <c r="E6">
-        <v>12591</v>
-      </c>
-      <c r="F6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9B3170-25D3-4855-B7F8-757AAD5B45BD}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.81768381575253402</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3.0000000092943599</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>7819.2626</v>
-      </c>
-      <c r="D3">
-        <v>13602.6</v>
-      </c>
-      <c r="E3">
-        <v>5783.3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2.4438075863495201</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>10650.3271</v>
-      </c>
-      <c r="D4">
-        <v>17102.900000000001</v>
-      </c>
-      <c r="E4">
-        <v>6452.6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2.5561924285665198</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>21457.798200000001</v>
-      </c>
-      <c r="D5">
-        <v>33726.300000000003</v>
-      </c>
-      <c r="E5">
-        <v>12268.5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.18231617835796299</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>29466.830300000001</v>
-      </c>
-      <c r="D6">
-        <v>41703.300000000003</v>
-      </c>
-      <c r="E6">
-        <v>12236.5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE401B9-E6A2-4DE8-A374-DF1CA99A0971}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -8476,7 +9210,1635 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23DA5D1-FB33-4F96-BC06-99F0B0145860}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.81149456513596896</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2.9948054274734099</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>7819.2626</v>
+      </c>
+      <c r="D3">
+        <v>14414.4</v>
+      </c>
+      <c r="E3">
+        <v>6595.1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2.44355902074743</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>10650.3271</v>
+      </c>
+      <c r="D4">
+        <v>17848.3</v>
+      </c>
+      <c r="E4">
+        <v>7197.9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2.5424839415142499</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>21457.798200000001</v>
+      </c>
+      <c r="D5">
+        <v>35018.699999999997</v>
+      </c>
+      <c r="E5">
+        <v>13560.9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.178143604260314</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>29466.830300000001</v>
+      </c>
+      <c r="D6">
+        <v>43255.8</v>
+      </c>
+      <c r="E6">
+        <v>13788.9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5.1945680628782001E-3</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>42918.643400000001</v>
+      </c>
+      <c r="D7">
+        <v>61084.3</v>
+      </c>
+      <c r="E7">
+        <v>18165.599999999999</v>
+      </c>
+      <c r="F7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.39570346777231E-2</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>44809.363599999997</v>
+      </c>
+      <c r="D8">
+        <v>63480</v>
+      </c>
+      <c r="E8">
+        <v>18670.7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.03618327322461E-2</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>44400.889799999997</v>
+      </c>
+      <c r="D9">
+        <v>65978.600000000006</v>
+      </c>
+      <c r="E9">
+        <v>21577.7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8085819-20AE-4CE5-8704-43916A0BB2D2}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.81104902002894397</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2.9958519031096098</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>7819.2626</v>
+      </c>
+      <c r="D3">
+        <v>14472.8</v>
+      </c>
+      <c r="E3">
+        <v>6653.5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2.4411400100572398</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>10650.3271</v>
+      </c>
+      <c r="D4">
+        <v>17903.099999999999</v>
+      </c>
+      <c r="E4">
+        <v>7252.8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2.5472856425625698</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>21457.798200000001</v>
+      </c>
+      <c r="D5">
+        <v>35146.300000000003</v>
+      </c>
+      <c r="E5">
+        <v>13688.5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.17993244816721199</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>29466.830300000001</v>
+      </c>
+      <c r="D6">
+        <v>43474.9</v>
+      </c>
+      <c r="E6">
+        <v>14008.1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4.1481194998157899E-3</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>42918.643400000001</v>
+      </c>
+      <c r="D7">
+        <v>61099.8</v>
+      </c>
+      <c r="E7">
+        <v>18181.2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.1574355811664499E-2</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>44809.363599999997</v>
+      </c>
+      <c r="D8">
+        <v>63045.3</v>
+      </c>
+      <c r="E8">
+        <v>18236</v>
+      </c>
+      <c r="F8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9.0185316175215996E-3</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>44400.889799999997</v>
+      </c>
+      <c r="D9">
+        <v>65111.8</v>
+      </c>
+      <c r="E9">
+        <v>20710.900000000001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B8E8DD-A334-41B5-BA39-BC17A91E2C31}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="53.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.80502094143260094</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2.9784590851178101</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>7819.2626</v>
+      </c>
+      <c r="D3">
+        <v>14896.7</v>
+      </c>
+      <c r="E3">
+        <v>7077.5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2.3800775299427301</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>10650.3271</v>
+      </c>
+      <c r="D4">
+        <v>18339.2</v>
+      </c>
+      <c r="E4">
+        <v>7688.9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2.59614599269739</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>21457.798200000001</v>
+      </c>
+      <c r="D5">
+        <v>36241.199999999997</v>
+      </c>
+      <c r="E5">
+        <v>14783.4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.16884748491766299</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>29466.830300000001</v>
+      </c>
+      <c r="D6">
+        <v>44562.9</v>
+      </c>
+      <c r="E6">
+        <v>15096.1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2.1770198353489801E-2</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>44400.889799999997</v>
+      </c>
+      <c r="D7">
+        <v>48828.800000000003</v>
+      </c>
+      <c r="E7">
+        <v>4427.8999999999996</v>
+      </c>
+      <c r="F7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8.5777354609557904E-3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>44674.9859</v>
+      </c>
+      <c r="D8">
+        <v>49403.199999999997</v>
+      </c>
+      <c r="E8">
+        <v>4728.2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.1017679904135999E-3</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>44809.363599999997</v>
+      </c>
+      <c r="D9">
+        <v>49674.2</v>
+      </c>
+      <c r="E9">
+        <v>4864.8999999999996</v>
+      </c>
+      <c r="F9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9.6086222072359999E-3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>51320.598100000003</v>
+      </c>
+      <c r="D10">
+        <v>68518.3</v>
+      </c>
+      <c r="E10">
+        <v>17197.7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4.0778550474286001E-3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>51944.105900000002</v>
+      </c>
+      <c r="D11">
+        <v>68839.7</v>
+      </c>
+      <c r="E11">
+        <v>16895.599999999999</v>
+      </c>
+      <c r="F11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3.3542264413897998E-3</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>51916.940799999997</v>
+      </c>
+      <c r="D12">
+        <v>69785.899999999994</v>
+      </c>
+      <c r="E12">
+        <v>17868.900000000001</v>
+      </c>
+      <c r="F12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1.85968629342146E-2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>52849.799099999997</v>
+      </c>
+      <c r="D13">
+        <v>70694.2</v>
+      </c>
+      <c r="E13">
+        <v>17844.400000000001</v>
+      </c>
+      <c r="F13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4.36135901161729E-3</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>51786.061399999999</v>
+      </c>
+      <c r="D14">
+        <v>72624.5</v>
+      </c>
+      <c r="E14">
+        <v>20838.400000000001</v>
+      </c>
+      <c r="F14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA03EA6E-9306-4517-8FF7-8D4F69E31865}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="49.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.869459141975643</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2.99255728481858</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>7819.2626</v>
+      </c>
+      <c r="D3">
+        <v>7289.8</v>
+      </c>
+      <c r="E3">
+        <v>-529.5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2.9708282017743501</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>10650.3271</v>
+      </c>
+      <c r="D4">
+        <v>10266.299999999999</v>
+      </c>
+      <c r="E4">
+        <v>-384.1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2.0211314506709499</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>21457.798200000001</v>
+      </c>
+      <c r="D5">
+        <v>20383.7</v>
+      </c>
+      <c r="E5">
+        <v>-1074.0999999999999</v>
+      </c>
+      <c r="F5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.12587984178248601</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>29466.830300000001</v>
+      </c>
+      <c r="D6">
+        <v>29074.5</v>
+      </c>
+      <c r="E6">
+        <v>-392.3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3.2209384307162001E-3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>44400.889799999997</v>
+      </c>
+      <c r="D7">
+        <v>44387.199999999997</v>
+      </c>
+      <c r="E7">
+        <v>-13.6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2.3770662538180002E-3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>44674.9859</v>
+      </c>
+      <c r="D8">
+        <v>44521.3</v>
+      </c>
+      <c r="E8">
+        <v>-153.69999999999999</v>
+      </c>
+      <c r="F8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.0392651715710999E-3</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>44809.363599999997</v>
+      </c>
+      <c r="D9">
+        <v>44681.5</v>
+      </c>
+      <c r="E9">
+        <v>-127.8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3.0820646704520002E-3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>51320.598100000003</v>
+      </c>
+      <c r="D10">
+        <v>55013.4</v>
+      </c>
+      <c r="E10">
+        <v>3692.8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.1475645636215E-3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>51944.105900000002</v>
+      </c>
+      <c r="D11">
+        <v>55417</v>
+      </c>
+      <c r="E11">
+        <v>3472.9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.9827893512477999E-3</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>51916.940799999997</v>
+      </c>
+      <c r="D12">
+        <v>56101.1</v>
+      </c>
+      <c r="E12">
+        <v>4184.1000000000004</v>
+      </c>
+      <c r="F12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5.8535085440738002E-3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>52849.799099999997</v>
+      </c>
+      <c r="D13">
+        <v>56678.1</v>
+      </c>
+      <c r="E13">
+        <v>3828.3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.4400781325604999E-3</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>51786.061399999999</v>
+      </c>
+      <c r="D14">
+        <v>58380</v>
+      </c>
+      <c r="E14">
+        <v>6593.9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38330EE8-F6D5-4A1A-BC2E-480AA07BD41F}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="52.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.86306072073921503</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2.9911892345164799</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>7819.2626</v>
+      </c>
+      <c r="D3">
+        <v>7484.1</v>
+      </c>
+      <c r="E3">
+        <v>-335.2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2.9670975172768901</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>10650.3271</v>
+      </c>
+      <c r="D4">
+        <v>10477.4</v>
+      </c>
+      <c r="E4">
+        <v>-172.9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2.0234358375475598</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>21457.798200000001</v>
+      </c>
+      <c r="D5">
+        <v>20657</v>
+      </c>
+      <c r="E5">
+        <v>-800.8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.13184055517294199</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>29466.830300000001</v>
+      </c>
+      <c r="D6">
+        <v>29069</v>
+      </c>
+      <c r="E6">
+        <v>-397.8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>1.0961366879E-6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>42918.643400000001</v>
+      </c>
+      <c r="D7">
+        <v>43036.4</v>
+      </c>
+      <c r="E7">
+        <v>117.8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3.4978838164949001E-3</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>44400.889799999997</v>
+      </c>
+      <c r="D8">
+        <v>44159.5</v>
+      </c>
+      <c r="E8">
+        <v>-241.4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2.8441411405942E-3</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>44674.9859</v>
+      </c>
+      <c r="D9">
+        <v>44364.1</v>
+      </c>
+      <c r="E9">
+        <v>-310.89999999999998</v>
+      </c>
+      <c r="F9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1.2329789646431E-3</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>44809.363599999997</v>
+      </c>
+      <c r="D10">
+        <v>44543.8</v>
+      </c>
+      <c r="E10">
+        <v>-265.60000000000002</v>
+      </c>
+      <c r="F10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3.7347510890723E-3</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>51320.598100000003</v>
+      </c>
+      <c r="D11">
+        <v>54852.3</v>
+      </c>
+      <c r="E11">
+        <v>3531.7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.49139457882069E-3</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>51944.105900000002</v>
+      </c>
+      <c r="D12">
+        <v>55264.6</v>
+      </c>
+      <c r="E12">
+        <v>3320.5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2.2307675922843E-3</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>51916.940799999997</v>
+      </c>
+      <c r="D13">
+        <v>55983.5</v>
+      </c>
+      <c r="E13">
+        <v>4066.5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6.7422850760796996E-3</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>52849.799099999997</v>
+      </c>
+      <c r="D14">
+        <v>56691.5</v>
+      </c>
+      <c r="E14">
+        <v>3841.7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1.6008280559683E-3</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>51786.061399999999</v>
+      </c>
+      <c r="D15">
+        <v>58488.4</v>
+      </c>
+      <c r="E15">
+        <v>6702.4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>347</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7256315-4140-40C3-BD6C-43246576BEC6}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="53.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.85982515100555401</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2.9692325319664499</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>7819.2626</v>
+      </c>
+      <c r="D3">
+        <v>7083</v>
+      </c>
+      <c r="E3">
+        <v>-736.2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2.9336098558427399</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>10650.3271</v>
+      </c>
+      <c r="D4">
+        <v>9993.7000000000007</v>
+      </c>
+      <c r="E4">
+        <v>-656.6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2.0361960860072501</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>21457.798200000001</v>
+      </c>
+      <c r="D5">
+        <v>19879.3</v>
+      </c>
+      <c r="E5">
+        <v>-1578.5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.129288741074365</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>29466.830300000001</v>
+      </c>
+      <c r="D6">
+        <v>28063.9</v>
+      </c>
+      <c r="E6">
+        <v>-1403</v>
+      </c>
+      <c r="F6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>4.9107039392999897E-6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>42918.643400000001</v>
+      </c>
+      <c r="D7">
+        <v>43892.5</v>
+      </c>
+      <c r="E7">
+        <v>973.9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7.8251734180156997E-3</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>44400.889799999997</v>
+      </c>
+      <c r="D8">
+        <v>46961.4</v>
+      </c>
+      <c r="E8">
+        <v>2560.5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9.99266823854629E-3</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>44674.9859</v>
+      </c>
+      <c r="D9">
+        <v>48780.1</v>
+      </c>
+      <c r="E9">
+        <v>4105.2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7.6360020350426999E-3</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>44809.363599999997</v>
+      </c>
+      <c r="D10">
+        <v>49093.4</v>
+      </c>
+      <c r="E10">
+        <v>4284.1000000000004</v>
+      </c>
+      <c r="F10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.7269172789897501E-2</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>51320.598100000003</v>
+      </c>
+      <c r="D11">
+        <v>56522.2</v>
+      </c>
+      <c r="E11">
+        <v>5201.6000000000004</v>
+      </c>
+      <c r="F11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6.5775126955571004E-3</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>51944.105900000002</v>
+      </c>
+      <c r="D12">
+        <v>57162.400000000001</v>
+      </c>
+      <c r="E12">
+        <v>5218.3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3.5007225283279998E-3</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>51916.940799999997</v>
+      </c>
+      <c r="D13">
+        <v>59251.6</v>
+      </c>
+      <c r="E13">
+        <v>7334.6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.5980541647964801E-2</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>52849.799099999997</v>
+      </c>
+      <c r="D14">
+        <v>62062</v>
+      </c>
+      <c r="E14">
+        <v>9212.2000000000007</v>
+      </c>
+      <c r="F14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3.0609350846611998E-3</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>51786.061399999999</v>
+      </c>
+      <c r="D15">
+        <v>65837.3</v>
+      </c>
+      <c r="E15">
+        <v>14051.2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>361</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4F16CB-0C0E-4F45-BE13-6484DCC971EF}">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -8795,1635 +11157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23DA5D1-FB33-4F96-BC06-99F0B0145860}">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="32" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.81149456513596896</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2.9948054274734099</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>7819.2626</v>
-      </c>
-      <c r="D3">
-        <v>14414.4</v>
-      </c>
-      <c r="E3">
-        <v>6595.1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2.44355902074743</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>10650.3271</v>
-      </c>
-      <c r="D4">
-        <v>17848.3</v>
-      </c>
-      <c r="E4">
-        <v>7197.9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2.5424839415142499</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>21457.798200000001</v>
-      </c>
-      <c r="D5">
-        <v>35018.699999999997</v>
-      </c>
-      <c r="E5">
-        <v>13560.9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.178143604260314</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>29466.830300000001</v>
-      </c>
-      <c r="D6">
-        <v>43255.8</v>
-      </c>
-      <c r="E6">
-        <v>13788.9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5.1945680628782001E-3</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>42918.643400000001</v>
-      </c>
-      <c r="D7">
-        <v>61084.3</v>
-      </c>
-      <c r="E7">
-        <v>18165.599999999999</v>
-      </c>
-      <c r="F7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1.39570346777231E-2</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>44809.363599999997</v>
-      </c>
-      <c r="D8">
-        <v>63480</v>
-      </c>
-      <c r="E8">
-        <v>18670.7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1.03618327322461E-2</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>44400.889799999997</v>
-      </c>
-      <c r="D9">
-        <v>65978.600000000006</v>
-      </c>
-      <c r="E9">
-        <v>21577.7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8085819-20AE-4CE5-8704-43916A0BB2D2}">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="32" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.81104902002894397</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2.9958519031096098</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>7819.2626</v>
-      </c>
-      <c r="D3">
-        <v>14472.8</v>
-      </c>
-      <c r="E3">
-        <v>6653.5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2.4411400100572398</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>10650.3271</v>
-      </c>
-      <c r="D4">
-        <v>17903.099999999999</v>
-      </c>
-      <c r="E4">
-        <v>7252.8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2.5472856425625698</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>21457.798200000001</v>
-      </c>
-      <c r="D5">
-        <v>35146.300000000003</v>
-      </c>
-      <c r="E5">
-        <v>13688.5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.17993244816721199</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>29466.830300000001</v>
-      </c>
-      <c r="D6">
-        <v>43474.9</v>
-      </c>
-      <c r="E6">
-        <v>14008.1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4.1481194998157899E-3</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>42918.643400000001</v>
-      </c>
-      <c r="D7">
-        <v>61099.8</v>
-      </c>
-      <c r="E7">
-        <v>18181.2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1.1574355811664499E-2</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>44809.363599999997</v>
-      </c>
-      <c r="D8">
-        <v>63045.3</v>
-      </c>
-      <c r="E8">
-        <v>18236</v>
-      </c>
-      <c r="F8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9.0185316175215996E-3</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>44400.889799999997</v>
-      </c>
-      <c r="D9">
-        <v>65111.8</v>
-      </c>
-      <c r="E9">
-        <v>20710.900000000001</v>
-      </c>
-      <c r="F9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B8E8DD-A334-41B5-BA39-BC17A91E2C31}">
-  <dimension ref="A1:F14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="53.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.80502094143260094</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2.9784590851178101</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>7819.2626</v>
-      </c>
-      <c r="D3">
-        <v>14896.7</v>
-      </c>
-      <c r="E3">
-        <v>7077.5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2.3800775299427301</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>10650.3271</v>
-      </c>
-      <c r="D4">
-        <v>18339.2</v>
-      </c>
-      <c r="E4">
-        <v>7688.9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2.59614599269739</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>21457.798200000001</v>
-      </c>
-      <c r="D5">
-        <v>36241.199999999997</v>
-      </c>
-      <c r="E5">
-        <v>14783.4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.16884748491766299</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>29466.830300000001</v>
-      </c>
-      <c r="D6">
-        <v>44562.9</v>
-      </c>
-      <c r="E6">
-        <v>15096.1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2.1770198353489801E-2</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>44400.889799999997</v>
-      </c>
-      <c r="D7">
-        <v>48828.800000000003</v>
-      </c>
-      <c r="E7">
-        <v>4427.8999999999996</v>
-      </c>
-      <c r="F7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8.5777354609557904E-3</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>44674.9859</v>
-      </c>
-      <c r="D8">
-        <v>49403.199999999997</v>
-      </c>
-      <c r="E8">
-        <v>4728.2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1.1017679904135999E-3</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>44809.363599999997</v>
-      </c>
-      <c r="D9">
-        <v>49674.2</v>
-      </c>
-      <c r="E9">
-        <v>4864.8999999999996</v>
-      </c>
-      <c r="F9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9.6086222072359999E-3</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>51320.598100000003</v>
-      </c>
-      <c r="D10">
-        <v>68518.3</v>
-      </c>
-      <c r="E10">
-        <v>17197.7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>4.0778550474286001E-3</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>51944.105900000002</v>
-      </c>
-      <c r="D11">
-        <v>68839.7</v>
-      </c>
-      <c r="E11">
-        <v>16895.599999999999</v>
-      </c>
-      <c r="F11" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3.3542264413897998E-3</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>51916.940799999997</v>
-      </c>
-      <c r="D12">
-        <v>69785.899999999994</v>
-      </c>
-      <c r="E12">
-        <v>17868.900000000001</v>
-      </c>
-      <c r="F12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1.85968629342146E-2</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>52849.799099999997</v>
-      </c>
-      <c r="D13">
-        <v>70694.2</v>
-      </c>
-      <c r="E13">
-        <v>17844.400000000001</v>
-      </c>
-      <c r="F13" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>4.36135901161729E-3</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>51786.061399999999</v>
-      </c>
-      <c r="D14">
-        <v>72624.5</v>
-      </c>
-      <c r="E14">
-        <v>20838.400000000001</v>
-      </c>
-      <c r="F14" t="s">
-        <v>329</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA03EA6E-9306-4517-8FF7-8D4F69E31865}">
-  <dimension ref="A1:F14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="49.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.869459141975643</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2.99255728481858</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>7819.2626</v>
-      </c>
-      <c r="D3">
-        <v>7289.8</v>
-      </c>
-      <c r="E3">
-        <v>-529.5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2.9708282017743501</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>10650.3271</v>
-      </c>
-      <c r="D4">
-        <v>10266.299999999999</v>
-      </c>
-      <c r="E4">
-        <v>-384.1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2.0211314506709499</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>21457.798200000001</v>
-      </c>
-      <c r="D5">
-        <v>20383.7</v>
-      </c>
-      <c r="E5">
-        <v>-1074.0999999999999</v>
-      </c>
-      <c r="F5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.12587984178248601</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>29466.830300000001</v>
-      </c>
-      <c r="D6">
-        <v>29074.5</v>
-      </c>
-      <c r="E6">
-        <v>-392.3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3.2209384307162001E-3</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>44400.889799999997</v>
-      </c>
-      <c r="D7">
-        <v>44387.199999999997</v>
-      </c>
-      <c r="E7">
-        <v>-13.6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2.3770662538180002E-3</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>44674.9859</v>
-      </c>
-      <c r="D8">
-        <v>44521.3</v>
-      </c>
-      <c r="E8">
-        <v>-153.69999999999999</v>
-      </c>
-      <c r="F8" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1.0392651715710999E-3</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>44809.363599999997</v>
-      </c>
-      <c r="D9">
-        <v>44681.5</v>
-      </c>
-      <c r="E9">
-        <v>-127.8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3.0820646704520002E-3</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>51320.598100000003</v>
-      </c>
-      <c r="D10">
-        <v>55013.4</v>
-      </c>
-      <c r="E10">
-        <v>3692.8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1.1475645636215E-3</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>51944.105900000002</v>
-      </c>
-      <c r="D11">
-        <v>55417</v>
-      </c>
-      <c r="E11">
-        <v>3472.9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1.9827893512477999E-3</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>51916.940799999997</v>
-      </c>
-      <c r="D12">
-        <v>56101.1</v>
-      </c>
-      <c r="E12">
-        <v>4184.1000000000004</v>
-      </c>
-      <c r="F12" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5.8535085440738002E-3</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>52849.799099999997</v>
-      </c>
-      <c r="D13">
-        <v>56678.1</v>
-      </c>
-      <c r="E13">
-        <v>3828.3</v>
-      </c>
-      <c r="F13" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1.4400781325604999E-3</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>51786.061399999999</v>
-      </c>
-      <c r="D14">
-        <v>58380</v>
-      </c>
-      <c r="E14">
-        <v>6593.9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>278</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38330EE8-F6D5-4A1A-BC2E-480AA07BD41F}">
-  <dimension ref="A1:F15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="52.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.86306072073921503</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2.9911892345164799</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>7819.2626</v>
-      </c>
-      <c r="D3">
-        <v>7484.1</v>
-      </c>
-      <c r="E3">
-        <v>-335.2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2.9670975172768901</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>10650.3271</v>
-      </c>
-      <c r="D4">
-        <v>10477.4</v>
-      </c>
-      <c r="E4">
-        <v>-172.9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2.0234358375475598</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>21457.798200000001</v>
-      </c>
-      <c r="D5">
-        <v>20657</v>
-      </c>
-      <c r="E5">
-        <v>-800.8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.13184055517294199</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>29466.830300000001</v>
-      </c>
-      <c r="D6">
-        <v>29069</v>
-      </c>
-      <c r="E6">
-        <v>-397.8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>1.0961366879E-6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>42918.643400000001</v>
-      </c>
-      <c r="D7">
-        <v>43036.4</v>
-      </c>
-      <c r="E7">
-        <v>117.8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3.4978838164949001E-3</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>44400.889799999997</v>
-      </c>
-      <c r="D8">
-        <v>44159.5</v>
-      </c>
-      <c r="E8">
-        <v>-241.4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2.8441411405942E-3</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>44674.9859</v>
-      </c>
-      <c r="D9">
-        <v>44364.1</v>
-      </c>
-      <c r="E9">
-        <v>-310.89999999999998</v>
-      </c>
-      <c r="F9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1.2329789646431E-3</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>44809.363599999997</v>
-      </c>
-      <c r="D10">
-        <v>44543.8</v>
-      </c>
-      <c r="E10">
-        <v>-265.60000000000002</v>
-      </c>
-      <c r="F10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3.7347510890723E-3</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>51320.598100000003</v>
-      </c>
-      <c r="D11">
-        <v>54852.3</v>
-      </c>
-      <c r="E11">
-        <v>3531.7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1.49139457882069E-3</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>51944.105900000002</v>
-      </c>
-      <c r="D12">
-        <v>55264.6</v>
-      </c>
-      <c r="E12">
-        <v>3320.5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2.2307675922843E-3</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>51916.940799999997</v>
-      </c>
-      <c r="D13">
-        <v>55983.5</v>
-      </c>
-      <c r="E13">
-        <v>4066.5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>6.7422850760796996E-3</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>52849.799099999997</v>
-      </c>
-      <c r="D14">
-        <v>56691.5</v>
-      </c>
-      <c r="E14">
-        <v>3841.7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1.6008280559683E-3</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>51786.061399999999</v>
-      </c>
-      <c r="D15">
-        <v>58488.4</v>
-      </c>
-      <c r="E15">
-        <v>6702.4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>347</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7256315-4140-40C3-BD6C-43246576BEC6}">
-  <dimension ref="A1:F15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="53.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.85982515100555401</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2.9692325319664499</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>7819.2626</v>
-      </c>
-      <c r="D3">
-        <v>7083</v>
-      </c>
-      <c r="E3">
-        <v>-736.2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2.9336098558427399</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>10650.3271</v>
-      </c>
-      <c r="D4">
-        <v>9993.7000000000007</v>
-      </c>
-      <c r="E4">
-        <v>-656.6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2.0361960860072501</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>21457.798200000001</v>
-      </c>
-      <c r="D5">
-        <v>19879.3</v>
-      </c>
-      <c r="E5">
-        <v>-1578.5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.129288741074365</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>29466.830300000001</v>
-      </c>
-      <c r="D6">
-        <v>28063.9</v>
-      </c>
-      <c r="E6">
-        <v>-1403</v>
-      </c>
-      <c r="F6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>4.9107039392999897E-6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>42918.643400000001</v>
-      </c>
-      <c r="D7">
-        <v>43892.5</v>
-      </c>
-      <c r="E7">
-        <v>973.9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7.8251734180156997E-3</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>44400.889799999997</v>
-      </c>
-      <c r="D8">
-        <v>46961.4</v>
-      </c>
-      <c r="E8">
-        <v>2560.5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9.99266823854629E-3</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>44674.9859</v>
-      </c>
-      <c r="D9">
-        <v>48780.1</v>
-      </c>
-      <c r="E9">
-        <v>4105.2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7.6360020350426999E-3</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>44809.363599999997</v>
-      </c>
-      <c r="D10">
-        <v>49093.4</v>
-      </c>
-      <c r="E10">
-        <v>4284.1000000000004</v>
-      </c>
-      <c r="F10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1.7269172789897501E-2</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>51320.598100000003</v>
-      </c>
-      <c r="D11">
-        <v>56522.2</v>
-      </c>
-      <c r="E11">
-        <v>5201.6000000000004</v>
-      </c>
-      <c r="F11" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>6.5775126955571004E-3</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>51944.105900000002</v>
-      </c>
-      <c r="D12">
-        <v>57162.400000000001</v>
-      </c>
-      <c r="E12">
-        <v>5218.3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3.5007225283279998E-3</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>51916.940799999997</v>
-      </c>
-      <c r="D13">
-        <v>59251.6</v>
-      </c>
-      <c r="E13">
-        <v>7334.6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1.5980541647964801E-2</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>52849.799099999997</v>
-      </c>
-      <c r="D14">
-        <v>62062</v>
-      </c>
-      <c r="E14">
-        <v>9212.2000000000007</v>
-      </c>
-      <c r="F14" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3.0609350846611998E-3</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>51786.061399999999</v>
-      </c>
-      <c r="D15">
-        <v>65837.3</v>
-      </c>
-      <c r="E15">
-        <v>14051.2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>361</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0166D8-8038-4C21-8006-660D604B4351}">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -10742,7 +11476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B83A9C6-356C-4996-ACC7-6FB333C30891}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -10861,7 +11595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97D69E1-17AA-4ECA-8951-EA14274DDACA}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -10980,7 +11714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61FB98B-9AF6-411C-B472-0CD70B858384}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -11099,7 +11833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E87602-E44B-4733-9C76-083F26E46555}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -11216,123 +11950,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C12437-A0D2-47B8-9B6C-72584E7EEFD2}">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1.00000000283417</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2.99999999255285</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>7819.2626</v>
-      </c>
-      <c r="D3">
-        <v>3287.5</v>
-      </c>
-      <c r="E3">
-        <v>-4531.7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3.0575157225037302</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>10650.3271</v>
-      </c>
-      <c r="D4">
-        <v>6168.8</v>
-      </c>
-      <c r="E4">
-        <v>-4481.6000000000004</v>
-      </c>
-      <c r="F4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1.9424842629769901</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>21457.798200000001</v>
-      </c>
-      <c r="D5">
-        <v>15676.9</v>
-      </c>
-      <c r="E5">
-        <v>-5780.9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>